--- a/dados/historico_do_valor_mensal_inflacao.xlsx
+++ b/dados/historico_do_valor_mensal_inflacao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\CP1PEPF00008303\EXCELCNV\f4eba772-f04d-4044-afc9-56e5d5f70960\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FM972EJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2093E486-7200-47DA-8C8A-8C6C9CCBC3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65FD11DC-DF9A-4745-BDA8-523C6613F633}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A67BB12-229B-4166-A6F3-EB7D84006EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{A351E0E1-FDCD-49B9-8852-77BAB423BB54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A351E0E1-FDCD-49B9-8852-77BAB423BB54}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>,"Jan","Fev","Mar","Abr","Mai","Jun","Jul","Ago","Set","Out","Nov","Dez","Ano"</t>
-  </si>
-  <si>
     <t>2024,"0,42%","0,83%","0,16%","0,38%","0,46%","0,21%","0,38%","-0,02%","0,44%","0,56%","0,39%","0,52%","4,83%"</t>
   </si>
   <si>
@@ -84,13 +81,16 @@
   </si>
   <si>
     <t>2010,"0,75%","0,78%","0,52%","0,57%","0,43%","0,00%","0,01%","0,04%","0,45%","0,75%","0,83%","0,63%","5,91%"</t>
+  </si>
+  <si>
+    <t>"Ano","Jan","Fev","Mar","Abr","Mai","Jun","Jul","Ago","Set","Out","Nov","Dez"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,48 +571,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -668,7 +668,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -774,7 +774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -916,7 +916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,92 +927,92 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="105.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1021,15 +1021,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EB3AE6CCAF9F724F8CACB2FDD0EE701D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="692053603583b90358c5bcc4f30b74b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a18f8d3-c68b-4c24-ae64-52d5638ab95e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="820fac954faeb01fee8a8211df9ded98" ns2:_="">
     <xsd:import namespace="4a18f8d3-c68b-4c24-ae64-52d5638ab95e"/>
@@ -1173,6 +1164,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1180,13 +1180,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53BB2028-99E3-4C28-95A5-EBB4C32C54B6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBBC7667-6244-456F-AE83-B86283CC8D8F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4a18f8d3-c68b-4c24-ae64-52d5638ab95e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBBC7667-6244-456F-AE83-B86283CC8D8F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53BB2028-99E3-4C28-95A5-EBB4C32C54B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C22D06-2AF8-4E13-A42B-16FD5AC41D06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66C22D06-2AF8-4E13-A42B-16FD5AC41D06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>